--- a/Code/Results/Cases/Case_5_100/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_100/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.604208786602442</v>
+        <v>1.023065755192931</v>
       </c>
       <c r="C2">
-        <v>0.6149946890947149</v>
+        <v>0.1927725476463422</v>
       </c>
       <c r="D2">
-        <v>0.1839524743970742</v>
+        <v>0.207869663336183</v>
       </c>
       <c r="E2">
-        <v>0.1676644369986633</v>
+        <v>0.1706476245223243</v>
       </c>
       <c r="F2">
-        <v>0.8853640815082713</v>
+        <v>1.255145777563058</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1945155304486832</v>
+        <v>0.1839599612594327</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6800805385245141</v>
+        <v>1.056347490988195</v>
       </c>
       <c r="O2">
-        <v>1.951773254048618</v>
+        <v>2.887423348435988</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.261922312591139</v>
+        <v>0.9226797810767948</v>
       </c>
       <c r="C3">
-        <v>0.5366023268585991</v>
+        <v>0.168586055212387</v>
       </c>
       <c r="D3">
-        <v>0.1642339033656839</v>
+        <v>0.2033822855059952</v>
       </c>
       <c r="E3">
-        <v>0.1494768190221443</v>
+        <v>0.1668010292406663</v>
       </c>
       <c r="F3">
-        <v>0.816999955447983</v>
+        <v>1.248864296630515</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1731655466297184</v>
+        <v>0.1796355010563033</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6960082082860808</v>
+        <v>1.06427707386684</v>
       </c>
       <c r="O3">
-        <v>1.816019115664972</v>
+        <v>2.881533560150899</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.052405685514202</v>
+        <v>0.8611533150814239</v>
       </c>
       <c r="C4">
-        <v>0.4885004239343118</v>
+        <v>0.1536945318088669</v>
       </c>
       <c r="D4">
-        <v>0.1522551943180304</v>
+        <v>0.2007029652277197</v>
       </c>
       <c r="E4">
-        <v>0.1384898710238716</v>
+        <v>0.1645237336686982</v>
       </c>
       <c r="F4">
-        <v>0.7768554177944651</v>
+        <v>1.245831171726408</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.160324316497892</v>
+        <v>0.1770892791536411</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.706816290117338</v>
+        <v>1.069608717380113</v>
       </c>
       <c r="O4">
-        <v>1.737432040615687</v>
+        <v>2.879976776102922</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.967152393235182</v>
+        <v>0.8361099128395324</v>
       </c>
       <c r="C5">
-        <v>0.4688995325232383</v>
+        <v>0.1476161486325509</v>
       </c>
       <c r="D5">
-        <v>0.1474033473027134</v>
+        <v>0.1996303047372407</v>
       </c>
       <c r="E5">
-        <v>0.134054065143232</v>
+        <v>0.1636169988557654</v>
       </c>
       <c r="F5">
-        <v>0.7609252853070672</v>
+        <v>1.244802045488129</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1551528816227545</v>
+        <v>0.1760790637621525</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7114703995308247</v>
+        <v>1.071897886162361</v>
       </c>
       <c r="O5">
-        <v>1.706525086841793</v>
+        <v>2.879859350500169</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.953002757593509</v>
+        <v>0.83195327108524</v>
       </c>
       <c r="C6">
-        <v>0.4656446901430513</v>
+        <v>0.14660624532263</v>
       </c>
       <c r="D6">
-        <v>0.1465994104957957</v>
+        <v>0.1994533515173202</v>
       </c>
       <c r="E6">
-        <v>0.133319898136314</v>
+        <v>0.163467722363432</v>
       </c>
       <c r="F6">
-        <v>0.758305129816975</v>
+        <v>1.244643649030849</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1542977166441517</v>
+        <v>0.1759129719723163</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7122580440093458</v>
+        <v>1.072285038918089</v>
       </c>
       <c r="O6">
-        <v>1.701458256332103</v>
+        <v>2.879871049352971</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.051255464662404</v>
+        <v>0.8608154514010948</v>
       </c>
       <c r="C7">
-        <v>0.4882360840212527</v>
+        <v>0.1536125965312181</v>
       </c>
       <c r="D7">
-        <v>0.1521896443937152</v>
+        <v>0.2006884211611464</v>
       </c>
       <c r="E7">
-        <v>0.1384298852708454</v>
+        <v>0.1645114189223129</v>
       </c>
       <c r="F7">
-        <v>0.7766388813172966</v>
+        <v>1.245816455169148</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1602543313218092</v>
+        <v>0.1770755441597842</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7068780572774642</v>
+        <v>1.069639118158598</v>
       </c>
       <c r="O7">
-        <v>1.737010795577504</v>
+        <v>2.879973100468391</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.486030879462305</v>
+        <v>0.9884303583446581</v>
       </c>
       <c r="C8">
-        <v>0.587954203902882</v>
+        <v>0.1844417240303926</v>
       </c>
       <c r="D8">
-        <v>0.1771251099543463</v>
+        <v>0.2063067025761427</v>
       </c>
       <c r="E8">
-        <v>0.1613535101571344</v>
+        <v>0.1693037883256707</v>
       </c>
       <c r="F8">
-        <v>0.8613925704981824</v>
+        <v>1.252808809370478</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.187094848210613</v>
+        <v>0.1824462465183885</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6853534458038979</v>
+        <v>1.058985601662734</v>
       </c>
       <c r="O8">
-        <v>1.90392594005462</v>
+        <v>2.884964521375338</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.345587140903433</v>
+        <v>1.239521282611065</v>
       </c>
       <c r="C9">
-        <v>0.784093293932898</v>
+        <v>0.2445615781981303</v>
       </c>
       <c r="D9">
-        <v>0.2271788202370431</v>
+        <v>0.217923678322606</v>
       </c>
       <c r="E9">
-        <v>0.2079262496112975</v>
+        <v>0.1793718603239682</v>
       </c>
       <c r="F9">
-        <v>1.043641024526821</v>
+        <v>1.273070072568629</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2421378150230709</v>
+        <v>0.19384493790146</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6517300694262076</v>
+        <v>1.041762886983058</v>
       </c>
       <c r="O9">
-        <v>2.27295510163998</v>
+        <v>2.911141077063661</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.984127915484748</v>
+        <v>1.424471702276662</v>
       </c>
       <c r="C10">
-        <v>0.9290899931537808</v>
+        <v>0.2885159083516555</v>
       </c>
       <c r="D10">
-        <v>0.2648625981276211</v>
+        <v>0.2268211270900196</v>
       </c>
       <c r="E10">
-        <v>0.2434151994439802</v>
+        <v>0.1871778862982154</v>
       </c>
       <c r="F10">
-        <v>1.189590224092669</v>
+        <v>1.291970975281259</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2844742496895236</v>
+        <v>0.2027515769076587</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.632894633317278</v>
+        <v>1.031341643504327</v>
       </c>
       <c r="O10">
-        <v>2.575321226408192</v>
+        <v>2.940435813039301</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.276820837480727</v>
+        <v>1.508706660821929</v>
       </c>
       <c r="C11">
-        <v>0.9953780790373514</v>
+        <v>0.3084629902243137</v>
       </c>
       <c r="D11">
-        <v>0.282253080783164</v>
+        <v>0.2309469371568298</v>
       </c>
       <c r="E11">
-        <v>0.2599052495155547</v>
+        <v>0.1908180179119725</v>
       </c>
       <c r="F11">
-        <v>1.25915182760717</v>
+        <v>1.301446358644839</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3042498366352504</v>
+        <v>0.206919811752897</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6257525902856358</v>
+        <v>1.027084709268799</v>
       </c>
       <c r="O11">
-        <v>2.721065193466586</v>
+        <v>2.955963794899986</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.388035663523453</v>
+        <v>1.540617658664985</v>
       </c>
       <c r="C12">
-        <v>1.020538673156807</v>
+        <v>0.3160092671066081</v>
       </c>
       <c r="D12">
-        <v>0.2888785037528976</v>
+        <v>0.2325204645420342</v>
       </c>
       <c r="E12">
-        <v>0.2662055736661486</v>
+        <v>0.1922092487579263</v>
       </c>
       <c r="F12">
-        <v>1.285998396942631</v>
+        <v>1.305160925925207</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3118220232920095</v>
+        <v>0.2085150194369589</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6232670790187242</v>
+        <v>1.025542229027337</v>
       </c>
       <c r="O12">
-        <v>2.777560983556725</v>
+        <v>2.962161591097669</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.364065729132108</v>
+        <v>1.533744495399276</v>
       </c>
       <c r="C13">
-        <v>1.015117081625874</v>
+        <v>0.3143843694171551</v>
       </c>
       <c r="D13">
-        <v>0.2874497467294788</v>
+        <v>0.2321810817753232</v>
       </c>
       <c r="E13">
-        <v>0.2648460963733115</v>
+        <v>0.1919090537716883</v>
       </c>
       <c r="F13">
-        <v>1.280193211377536</v>
+        <v>1.304355299006914</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3101873421385903</v>
+        <v>0.208170715865819</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6237924037479914</v>
+        <v>1.025871337917167</v>
       </c>
       <c r="O13">
-        <v>2.765333393566976</v>
+        <v>2.960812638224326</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.285962605596751</v>
+        <v>1.511331744020652</v>
       </c>
       <c r="C14">
-        <v>0.997446809249027</v>
+        <v>0.309083974285187</v>
       </c>
       <c r="D14">
-        <v>0.2827973298210935</v>
+        <v>0.2310761687946155</v>
       </c>
       <c r="E14">
-        <v>0.2604224235463448</v>
+        <v>0.1909322190827609</v>
       </c>
       <c r="F14">
-        <v>1.2613500899879</v>
+        <v>1.301749422487248</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3048710732271331</v>
+        <v>0.2070507138492985</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.625543632547263</v>
+        <v>1.026956415207792</v>
       </c>
       <c r="O14">
-        <v>2.725686201470126</v>
+        <v>2.956467318163533</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.238173316990185</v>
+        <v>1.497604945947444</v>
       </c>
       <c r="C15">
-        <v>0.9866312666454462</v>
+        <v>0.3058363745898305</v>
       </c>
       <c r="D15">
-        <v>0.2799529384778765</v>
+        <v>0.2304008300599634</v>
       </c>
       <c r="E15">
-        <v>0.2577202675542338</v>
+        <v>0.1903355447879846</v>
       </c>
       <c r="F15">
-        <v>1.249875451403753</v>
+        <v>1.300169723547185</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3016258827306615</v>
+        <v>0.2063668673020942</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6266452661200574</v>
+        <v>1.027630110142908</v>
       </c>
       <c r="O15">
-        <v>2.701575148393232</v>
+        <v>2.953847088695028</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.965049334959872</v>
+        <v>1.418968648510713</v>
       </c>
       <c r="C16">
-        <v>0.924765478253363</v>
+        <v>0.2872113242821968</v>
       </c>
       <c r="D16">
-        <v>0.2637314438392906</v>
+        <v>0.2265530639959934</v>
       </c>
       <c r="E16">
-        <v>0.2423450115583421</v>
+        <v>0.186941786549113</v>
       </c>
       <c r="F16">
-        <v>1.185112105199693</v>
+        <v>1.291369414790452</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2831930416521686</v>
+        <v>0.2024815207011841</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6333912494312983</v>
+        <v>1.031629575323279</v>
       </c>
       <c r="O16">
-        <v>2.56597207023205</v>
+        <v>2.939465419121149</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.798105299500605</v>
+        <v>1.370752502622508</v>
       </c>
       <c r="C17">
-        <v>0.8869047803970886</v>
+        <v>0.2757729229547294</v>
       </c>
       <c r="D17">
-        <v>0.2538465837388202</v>
+        <v>0.2242125792819252</v>
       </c>
       <c r="E17">
-        <v>0.2330056137860339</v>
+        <v>0.1848826366529153</v>
       </c>
       <c r="F17">
-        <v>1.146227365061378</v>
+        <v>1.286195609664333</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2720237757302186</v>
+        <v>0.2001278590133779</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.63790457478283</v>
+        <v>1.034206990098951</v>
       </c>
       <c r="O17">
-        <v>2.484970377396195</v>
+        <v>2.931207404103418</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.702288371400471</v>
+        <v>1.34302935130313</v>
       </c>
       <c r="C18">
-        <v>0.8651584638900829</v>
+        <v>0.2691893635192173</v>
       </c>
       <c r="D18">
-        <v>0.2481841288518609</v>
+        <v>0.2228737711623978</v>
       </c>
       <c r="E18">
-        <v>0.2276660037955978</v>
+        <v>0.1837066590381795</v>
       </c>
       <c r="F18">
-        <v>1.124156939257361</v>
+        <v>1.283302328722229</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2656475244246934</v>
+        <v>0.1987850646699343</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6406338741031377</v>
+        <v>1.035734984557457</v>
       </c>
       <c r="O18">
-        <v>2.439143592760132</v>
+        <v>2.926664777611506</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.669879862502569</v>
+        <v>1.333644441410115</v>
       </c>
       <c r="C19">
-        <v>0.8578003805190235</v>
+        <v>0.2669595224290333</v>
       </c>
       <c r="D19">
-        <v>0.2462707513364819</v>
+        <v>0.2224217434241069</v>
       </c>
       <c r="E19">
-        <v>0.2258634487158631</v>
+        <v>0.1833099351380199</v>
       </c>
       <c r="F19">
-        <v>1.116733505771705</v>
+        <v>1.282336883414388</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2634966105314192</v>
+        <v>0.1983323008137035</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6415804645625371</v>
+        <v>1.03626015878384</v>
       </c>
       <c r="O19">
-        <v>2.423754815182519</v>
+        <v>2.925162269982366</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.815855159734497</v>
+        <v>1.375884220152727</v>
       </c>
       <c r="C20">
-        <v>0.8909319153392516</v>
+        <v>0.2769910279275223</v>
       </c>
       <c r="D20">
-        <v>0.2548964273344438</v>
+        <v>0.2244609650526996</v>
       </c>
       <c r="E20">
-        <v>0.2339964367729479</v>
+        <v>0.1851009684252247</v>
       </c>
       <c r="F20">
-        <v>1.150335830318809</v>
+        <v>1.286737823787703</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2732077287438273</v>
+        <v>0.2003772748145281</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6374102244858761</v>
+        <v>1.033927907589678</v>
       </c>
       <c r="O20">
-        <v>2.493513265267921</v>
+        <v>2.932065035159724</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.308892617178458</v>
+        <v>1.517914568988601</v>
       </c>
       <c r="C21">
-        <v>1.002635305298554</v>
+        <v>0.3106410283907053</v>
       </c>
       <c r="D21">
-        <v>0.2841627345284508</v>
+        <v>0.2314004060059176</v>
       </c>
       <c r="E21">
-        <v>0.2617201947386789</v>
+        <v>0.1912187921367376</v>
       </c>
       <c r="F21">
-        <v>1.266870648455011</v>
+        <v>1.302511397546013</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3064302430630192</v>
+        <v>0.2073792297691739</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6250231935343962</v>
+        <v>1.026635814959583</v>
       </c>
       <c r="O21">
-        <v>2.737295039980609</v>
+        <v>2.957735013381637</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.633357998441056</v>
+        <v>1.610815040999739</v>
       </c>
       <c r="C22">
-        <v>1.075988433056153</v>
+        <v>0.3325908269223987</v>
       </c>
       <c r="D22">
-        <v>0.303525551137426</v>
+        <v>0.2360008134489817</v>
       </c>
       <c r="E22">
-        <v>0.2801683429420123</v>
+        <v>0.1952916936768858</v>
       </c>
       <c r="F22">
-        <v>1.346003009862144</v>
+        <v>1.313557496809636</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3286352876781251</v>
+        <v>0.2120532754533002</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6182114595867887</v>
+        <v>1.022275264201497</v>
       </c>
       <c r="O22">
-        <v>2.904298095904664</v>
+        <v>2.97636405478417</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.459958989566417</v>
+        <v>1.561225851994607</v>
       </c>
       <c r="C23">
-        <v>1.036802502897785</v>
+        <v>0.3208798042342664</v>
       </c>
       <c r="D23">
-        <v>0.2931681530326387</v>
+        <v>0.2335395638139346</v>
       </c>
       <c r="E23">
-        <v>0.2702899370834473</v>
+        <v>0.1931110963544427</v>
       </c>
       <c r="F23">
-        <v>1.303479368260156</v>
+        <v>1.307594438182406</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3167357056849198</v>
+        <v>0.209549686055496</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6217246437866848</v>
+        <v>1.024565500921149</v>
       </c>
       <c r="O23">
-        <v>2.814418080029725</v>
+        <v>2.96625154534496</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.80782994956337</v>
+        <v>1.373564180044809</v>
       </c>
       <c r="C24">
-        <v>0.8891111852496749</v>
+        <v>0.2764403459136702</v>
       </c>
       <c r="D24">
-        <v>0.2544217295714333</v>
+        <v>0.2243486487598148</v>
       </c>
       <c r="E24">
-        <v>0.2335483935439768</v>
+        <v>0.1850022361624823</v>
       </c>
       <c r="F24">
-        <v>1.148477509374516</v>
+        <v>1.286492435841666</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2726723237789059</v>
+        <v>0.2002644816727752</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6376333022693572</v>
+        <v>1.034053936861433</v>
       </c>
       <c r="O24">
-        <v>2.489648723457606</v>
+        <v>2.931676661615342</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.112035103468827</v>
+        <v>1.171508640567311</v>
       </c>
       <c r="C25">
-        <v>0.730916840251723</v>
+        <v>0.2283346660701966</v>
       </c>
       <c r="D25">
-        <v>0.2134940330925161</v>
+        <v>0.2147171087037236</v>
       </c>
       <c r="E25">
-        <v>0.1951256048737164</v>
+        <v>0.17657638314369</v>
       </c>
       <c r="F25">
-        <v>0.9923959844286259</v>
+        <v>1.2668854124083</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.226947139721247</v>
+        <v>0.1906681233375451</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6598443046058335</v>
+        <v>1.046029786764343</v>
       </c>
       <c r="O25">
-        <v>2.168083567871747</v>
+        <v>2.902297696863002</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_100/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_100/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.023065755192931</v>
+        <v>2.604208786602214</v>
       </c>
       <c r="C2">
-        <v>0.1927725476463422</v>
+        <v>0.6149946890942601</v>
       </c>
       <c r="D2">
-        <v>0.207869663336183</v>
+        <v>0.1839524743972447</v>
       </c>
       <c r="E2">
-        <v>0.1706476245223243</v>
+        <v>0.1676644369986491</v>
       </c>
       <c r="F2">
-        <v>1.255145777563058</v>
+        <v>0.8853640815082571</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1839599612594327</v>
+        <v>0.1945155304486406</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.056347490988195</v>
+        <v>0.6800805385245212</v>
       </c>
       <c r="O2">
-        <v>2.887423348435988</v>
+        <v>1.951773254048618</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9226797810767948</v>
+        <v>2.261922312591253</v>
       </c>
       <c r="C3">
-        <v>0.168586055212387</v>
+        <v>0.5366023268583717</v>
       </c>
       <c r="D3">
-        <v>0.2033822855059952</v>
+        <v>0.1642339033656697</v>
       </c>
       <c r="E3">
-        <v>0.1668010292406663</v>
+        <v>0.1494768190221443</v>
       </c>
       <c r="F3">
-        <v>1.248864296630515</v>
+        <v>0.816999955447983</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1796355010563033</v>
+        <v>0.1731655466296544</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.06427707386684</v>
+        <v>0.6960082082861447</v>
       </c>
       <c r="O3">
-        <v>2.881533560150899</v>
+        <v>1.816019115664972</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8611533150814239</v>
+        <v>2.052405685513975</v>
       </c>
       <c r="C4">
-        <v>0.1536945318088669</v>
+        <v>0.4885004239339139</v>
       </c>
       <c r="D4">
-        <v>0.2007029652277197</v>
+        <v>0.1522551943179593</v>
       </c>
       <c r="E4">
-        <v>0.1645237336686982</v>
+        <v>0.1384898710238751</v>
       </c>
       <c r="F4">
-        <v>1.245831171726408</v>
+        <v>0.7768554177944509</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1770892791536411</v>
+        <v>0.1603243164979347</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.069608717380113</v>
+        <v>0.7068162901173309</v>
       </c>
       <c r="O4">
-        <v>2.879976776102922</v>
+        <v>1.737432040615687</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8361099128395324</v>
+        <v>1.967152393235295</v>
       </c>
       <c r="C5">
-        <v>0.1476161486325509</v>
+        <v>0.4688995325235226</v>
       </c>
       <c r="D5">
-        <v>0.1996303047372407</v>
+        <v>0.1474033473028271</v>
       </c>
       <c r="E5">
-        <v>0.1636169988557654</v>
+        <v>0.1340540651431965</v>
       </c>
       <c r="F5">
-        <v>1.244802045488129</v>
+        <v>0.7609252853070529</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1760790637621525</v>
+        <v>0.1551528816227545</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.071897886162361</v>
+        <v>0.7114703995308318</v>
       </c>
       <c r="O5">
-        <v>2.879859350500169</v>
+        <v>1.706525086841879</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.83195327108524</v>
+        <v>1.953002757593595</v>
       </c>
       <c r="C6">
-        <v>0.14660624532263</v>
+        <v>0.4656446901435061</v>
       </c>
       <c r="D6">
-        <v>0.1994533515173202</v>
+        <v>0.1465994104957673</v>
       </c>
       <c r="E6">
-        <v>0.163467722363432</v>
+        <v>0.1333198981363068</v>
       </c>
       <c r="F6">
-        <v>1.244643649030849</v>
+        <v>0.7583051298169821</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1759129719723163</v>
+        <v>0.1542977166441659</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.072285038918089</v>
+        <v>0.7122580440094168</v>
       </c>
       <c r="O6">
-        <v>2.879871049352971</v>
+        <v>1.701458256332131</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8608154514010948</v>
+        <v>2.05125546466229</v>
       </c>
       <c r="C7">
-        <v>0.1536125965312181</v>
+        <v>0.4882360840210254</v>
       </c>
       <c r="D7">
-        <v>0.2006884211611464</v>
+        <v>0.1521896443938147</v>
       </c>
       <c r="E7">
-        <v>0.1645114189223129</v>
+        <v>0.1384298852708596</v>
       </c>
       <c r="F7">
-        <v>1.245816455169148</v>
+        <v>0.7766388813172824</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1770755441597842</v>
+        <v>0.1602543313218163</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.069639118158598</v>
+        <v>0.7068780572774784</v>
       </c>
       <c r="O7">
-        <v>2.879973100468391</v>
+        <v>1.737010795577476</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9884303583446581</v>
+        <v>2.486030879462533</v>
       </c>
       <c r="C8">
-        <v>0.1844417240303926</v>
+        <v>0.5879542039026262</v>
       </c>
       <c r="D8">
-        <v>0.2063067025761427</v>
+        <v>0.1771251099544031</v>
       </c>
       <c r="E8">
-        <v>0.1693037883256707</v>
+        <v>0.1613535101571486</v>
       </c>
       <c r="F8">
-        <v>1.252808809370478</v>
+        <v>0.8613925704981824</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1824462465183885</v>
+        <v>0.1870948482106556</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.058985601662734</v>
+        <v>0.6853534458038979</v>
       </c>
       <c r="O8">
-        <v>2.884964521375338</v>
+        <v>1.90392594005462</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.239521282611065</v>
+        <v>3.34558714090349</v>
       </c>
       <c r="C9">
-        <v>0.2445615781981303</v>
+        <v>0.7840932939328127</v>
       </c>
       <c r="D9">
-        <v>0.217923678322606</v>
+        <v>0.227178820237242</v>
       </c>
       <c r="E9">
-        <v>0.1793718603239682</v>
+        <v>0.2079262496112975</v>
       </c>
       <c r="F9">
-        <v>1.273070072568629</v>
+        <v>1.043641024526806</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.19384493790146</v>
+        <v>0.2421378150230709</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.041762886983058</v>
+        <v>0.6517300694262005</v>
       </c>
       <c r="O9">
-        <v>2.911141077063661</v>
+        <v>2.272955101639923</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.424471702276662</v>
+        <v>3.984127915484635</v>
       </c>
       <c r="C10">
-        <v>0.2885159083516555</v>
+        <v>0.9290899931537524</v>
       </c>
       <c r="D10">
-        <v>0.2268211270900196</v>
+        <v>0.2648625981276211</v>
       </c>
       <c r="E10">
-        <v>0.1871778862982154</v>
+        <v>0.2434151994439731</v>
       </c>
       <c r="F10">
-        <v>1.291970975281259</v>
+        <v>1.189590224092669</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2027515769076587</v>
+        <v>0.284474249689552</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.031341643504327</v>
+        <v>0.6328946333173278</v>
       </c>
       <c r="O10">
-        <v>2.940435813039301</v>
+        <v>2.57532122640805</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.508706660821929</v>
+        <v>4.276820837480841</v>
       </c>
       <c r="C11">
-        <v>0.3084629902243137</v>
+        <v>0.9953780790375788</v>
       </c>
       <c r="D11">
-        <v>0.2309469371568298</v>
+        <v>0.282253080783164</v>
       </c>
       <c r="E11">
-        <v>0.1908180179119725</v>
+        <v>0.2599052495155547</v>
       </c>
       <c r="F11">
-        <v>1.301446358644839</v>
+        <v>1.259151827607184</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.206919811752897</v>
+        <v>0.3042498366353215</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.027084709268799</v>
+        <v>0.6257525902856429</v>
       </c>
       <c r="O11">
-        <v>2.955963794899986</v>
+        <v>2.721065193466586</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.540617658664985</v>
+        <v>4.388035663523397</v>
       </c>
       <c r="C12">
-        <v>0.3160092671066081</v>
+        <v>1.020538673157063</v>
       </c>
       <c r="D12">
-        <v>0.2325204645420342</v>
+        <v>0.2888785037527413</v>
       </c>
       <c r="E12">
-        <v>0.1922092487579263</v>
+        <v>0.2662055736661415</v>
       </c>
       <c r="F12">
-        <v>1.305160925925207</v>
+        <v>1.285998396942617</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2085150194369589</v>
+        <v>0.3118220232919242</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.025542229027337</v>
+        <v>0.6232670790187811</v>
       </c>
       <c r="O12">
-        <v>2.962161591097669</v>
+        <v>2.777560983556697</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.533744495399276</v>
+        <v>4.364065729132335</v>
       </c>
       <c r="C13">
-        <v>0.3143843694171551</v>
+        <v>1.015117081626073</v>
       </c>
       <c r="D13">
-        <v>0.2321810817753232</v>
+        <v>0.287449746729294</v>
       </c>
       <c r="E13">
-        <v>0.1919090537716883</v>
+        <v>0.2648460963732902</v>
       </c>
       <c r="F13">
-        <v>1.304355299006914</v>
+        <v>1.280193211377522</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.208170715865819</v>
+        <v>0.3101873421385477</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.025871337917167</v>
+        <v>0.6237924037479843</v>
       </c>
       <c r="O13">
-        <v>2.960812638224326</v>
+        <v>2.765333393566976</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.511331744020652</v>
+        <v>4.285962605596978</v>
       </c>
       <c r="C14">
-        <v>0.309083974285187</v>
+        <v>0.9974468092489133</v>
       </c>
       <c r="D14">
-        <v>0.2310761687946155</v>
+        <v>0.2827973298210367</v>
       </c>
       <c r="E14">
-        <v>0.1909322190827609</v>
+        <v>0.260422423546359</v>
       </c>
       <c r="F14">
-        <v>1.301749422487248</v>
+        <v>1.2613500899879</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2070507138492985</v>
+        <v>0.3048710732272326</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.026956415207792</v>
+        <v>0.6255436325472701</v>
       </c>
       <c r="O14">
-        <v>2.956467318163533</v>
+        <v>2.725686201470069</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.497604945947444</v>
+        <v>4.238173316990299</v>
       </c>
       <c r="C15">
-        <v>0.3058363745898305</v>
+        <v>0.9866312666456452</v>
       </c>
       <c r="D15">
-        <v>0.2304008300599634</v>
+        <v>0.279952938477777</v>
       </c>
       <c r="E15">
-        <v>0.1903355447879846</v>
+        <v>0.2577202675542409</v>
       </c>
       <c r="F15">
-        <v>1.300169723547185</v>
+        <v>1.249875451403753</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2063668673020942</v>
+        <v>0.3016258827306331</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.027630110142908</v>
+        <v>0.6266452661200574</v>
       </c>
       <c r="O15">
-        <v>2.953847088695028</v>
+        <v>2.70157514839326</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.418968648510713</v>
+        <v>3.965049334959815</v>
       </c>
       <c r="C16">
-        <v>0.2872113242821968</v>
+        <v>0.9247654782535619</v>
       </c>
       <c r="D16">
-        <v>0.2265530639959934</v>
+        <v>0.2637314438393474</v>
       </c>
       <c r="E16">
-        <v>0.186941786549113</v>
+        <v>0.2423450115583279</v>
       </c>
       <c r="F16">
-        <v>1.291369414790452</v>
+        <v>1.185112105199693</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2024815207011841</v>
+        <v>0.2831930416522397</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.031629575323279</v>
+        <v>0.6333912494312486</v>
       </c>
       <c r="O16">
-        <v>2.939465419121149</v>
+        <v>2.565972070231936</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.370752502622508</v>
+        <v>3.798105299500548</v>
       </c>
       <c r="C17">
-        <v>0.2757729229547294</v>
+        <v>0.8869047803971739</v>
       </c>
       <c r="D17">
-        <v>0.2242125792819252</v>
+        <v>0.2538465837391186</v>
       </c>
       <c r="E17">
-        <v>0.1848826366529153</v>
+        <v>0.2330056137860268</v>
       </c>
       <c r="F17">
-        <v>1.286195609664333</v>
+        <v>1.146227365061378</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2001278590133779</v>
+        <v>0.2720237757301334</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.034206990098951</v>
+        <v>0.6379045747827519</v>
       </c>
       <c r="O17">
-        <v>2.931207404103418</v>
+        <v>2.484970377396223</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.34302935130313</v>
+        <v>3.702288371400471</v>
       </c>
       <c r="C18">
-        <v>0.2691893635192173</v>
+        <v>0.8651584638901966</v>
       </c>
       <c r="D18">
-        <v>0.2228737711623978</v>
+        <v>0.2481841288520599</v>
       </c>
       <c r="E18">
-        <v>0.1837066590381795</v>
+        <v>0.2276660037955907</v>
       </c>
       <c r="F18">
-        <v>1.283302328722229</v>
+        <v>1.124156939257361</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1987850646699343</v>
+        <v>0.2656475244246792</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.035734984557457</v>
+        <v>0.6406338741031234</v>
       </c>
       <c r="O18">
-        <v>2.926664777611506</v>
+        <v>2.439143592760104</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.333644441410115</v>
+        <v>3.669879862502626</v>
       </c>
       <c r="C19">
-        <v>0.2669595224290333</v>
+        <v>0.8578003805191656</v>
       </c>
       <c r="D19">
-        <v>0.2224217434241069</v>
+        <v>0.2462707513364961</v>
       </c>
       <c r="E19">
-        <v>0.1833099351380199</v>
+        <v>0.2258634487158702</v>
       </c>
       <c r="F19">
-        <v>1.282336883414388</v>
+        <v>1.116733505771705</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1983323008137035</v>
+        <v>0.2634966105313765</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.03626015878384</v>
+        <v>0.6415804645625443</v>
       </c>
       <c r="O19">
-        <v>2.925162269982366</v>
+        <v>2.423754815182519</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.375884220152727</v>
+        <v>3.81585515973461</v>
       </c>
       <c r="C20">
-        <v>0.2769910279275223</v>
+        <v>0.8909319153392516</v>
       </c>
       <c r="D20">
-        <v>0.2244609650526996</v>
+        <v>0.254896427334586</v>
       </c>
       <c r="E20">
-        <v>0.1851009684252247</v>
+        <v>0.2339964367729479</v>
       </c>
       <c r="F20">
-        <v>1.286737823787703</v>
+        <v>1.150335830318824</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2003772748145281</v>
+        <v>0.2732077287437988</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.033927907589678</v>
+        <v>0.637410224485869</v>
       </c>
       <c r="O20">
-        <v>2.932065035159724</v>
+        <v>2.493513265267921</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.517914568988601</v>
+        <v>4.308892617178515</v>
       </c>
       <c r="C21">
-        <v>0.3106410283907053</v>
+        <v>1.002635305298355</v>
       </c>
       <c r="D21">
-        <v>0.2314004060059176</v>
+        <v>0.284162734528465</v>
       </c>
       <c r="E21">
-        <v>0.1912187921367376</v>
+        <v>0.2617201947386718</v>
       </c>
       <c r="F21">
-        <v>1.302511397546013</v>
+        <v>1.266870648454997</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2073792297691739</v>
+        <v>0.3064302430630335</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.026635814959583</v>
+        <v>0.6250231935344104</v>
       </c>
       <c r="O21">
-        <v>2.957735013381637</v>
+        <v>2.737295039980609</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.610815040999739</v>
+        <v>4.63335799844117</v>
       </c>
       <c r="C22">
-        <v>0.3325908269223987</v>
+        <v>1.075988433056381</v>
       </c>
       <c r="D22">
-        <v>0.2360008134489817</v>
+        <v>0.3035255511372412</v>
       </c>
       <c r="E22">
-        <v>0.1952916936768858</v>
+        <v>0.2801683429420621</v>
       </c>
       <c r="F22">
-        <v>1.313557496809636</v>
+        <v>1.346003009862144</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2120532754533002</v>
+        <v>0.328635287678182</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.022275264201497</v>
+        <v>0.6182114595867318</v>
       </c>
       <c r="O22">
-        <v>2.97636405478417</v>
+        <v>2.90429809590475</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.561225851994607</v>
+        <v>4.459958989566474</v>
       </c>
       <c r="C23">
-        <v>0.3208798042342664</v>
+        <v>1.036802502897871</v>
       </c>
       <c r="D23">
-        <v>0.2335395638139346</v>
+        <v>0.2931681530329229</v>
       </c>
       <c r="E23">
-        <v>0.1931110963544427</v>
+        <v>0.2702899370834331</v>
       </c>
       <c r="F23">
-        <v>1.307594438182406</v>
+        <v>1.303479368260156</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.209549686055496</v>
+        <v>0.3167357056849482</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.024565500921149</v>
+        <v>0.6217246437867487</v>
       </c>
       <c r="O23">
-        <v>2.96625154534496</v>
+        <v>2.814418080029753</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.373564180044809</v>
+        <v>3.807829949563484</v>
       </c>
       <c r="C24">
-        <v>0.2764403459136702</v>
+        <v>0.8891111852494475</v>
       </c>
       <c r="D24">
-        <v>0.2243486487598148</v>
+        <v>0.2544217295713338</v>
       </c>
       <c r="E24">
-        <v>0.1850022361624823</v>
+        <v>0.2335483935439981</v>
       </c>
       <c r="F24">
-        <v>1.286492435841666</v>
+        <v>1.148477509374516</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2002644816727752</v>
+        <v>0.2726723237788349</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.034053936861433</v>
+        <v>0.6376333022693004</v>
       </c>
       <c r="O24">
-        <v>2.931676661615342</v>
+        <v>2.489648723457606</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.171508640567311</v>
+        <v>3.112035103468827</v>
       </c>
       <c r="C25">
-        <v>0.2283346660701966</v>
+        <v>0.730916840251723</v>
       </c>
       <c r="D25">
-        <v>0.2147171087037236</v>
+        <v>0.2134940330923456</v>
       </c>
       <c r="E25">
-        <v>0.17657638314369</v>
+        <v>0.195125604873752</v>
       </c>
       <c r="F25">
-        <v>1.2668854124083</v>
+        <v>0.9923959844286117</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1906681233375451</v>
+        <v>0.2269471397212328</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.046029786764343</v>
+        <v>0.6598443046057767</v>
       </c>
       <c r="O25">
-        <v>2.902297696863002</v>
+        <v>2.16808356787169</v>
       </c>
     </row>
   </sheetData>
